--- a/med/research/files/research.xlsx
+++ b/med/research/files/research.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UVUStudentLoaner\Desktop\REPOs\personal\pbischoff3.github.io\Hours\research\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbisc\Desktop\REPOs\personal\pbischoff3.github.io\med\research\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94126C2-2A2B-4D5A-81E6-34729418A481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489FB807-3995-450F-A561-94CC665699AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,11 +404,11 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C2">
         <f>B2*5</f>
-        <v>730</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">

--- a/med/research/files/research.xlsx
+++ b/med/research/files/research.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbisc\Desktop\REPOs\personal\pbischoff3.github.io\med\research\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489FB807-3995-450F-A561-94CC665699AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31F7F8C-E8FF-4AA0-9E4C-CD60A2628E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>description</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>SPUR</t>
+  </si>
+  <si>
+    <t>Deaf/Diabetes</t>
+  </si>
+  <si>
+    <t>Adhera Health</t>
   </si>
 </sst>
 </file>
@@ -378,7 +384,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,11 +410,11 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C2">
         <f>B2*5</f>
-        <v>780</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -432,10 +438,32 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>220</v>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <f>B6*5</f>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <f>B7*12</f>
+        <v>132</v>
+      </c>
       <c r="M7" s="1"/>
     </row>
   </sheetData>

--- a/med/research/files/research.xlsx
+++ b/med/research/files/research.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbisc\Desktop\REPOs\personal\pbischoff3.github.io\med\research\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31F7F8C-E8FF-4AA0-9E4C-CD60A2628E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F21AB-FF0B-4286-AD2C-43F71ED6C9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,11 +410,11 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C2">
         <f>B2*5</f>
-        <v>840</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
